--- a/Data/page_data/test_baidu.xlsx
+++ b/Data/page_data/test_baidu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm\selenium+pytest框架\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm\selenium+pytest框架\Data\page_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95ECAC8-2F65-4249-92A0-9A433579FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B55B5A6-F153-4BA0-8C0C-C733978E2E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="730" yWindow="550" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baidu_home" sheetId="1" r:id="rId1"/>
@@ -151,10 +151,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>span.app-guide-close</t>
-  </si>
-  <si>
     <t>close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.desktop-guide-close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -642,7 +643,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -722,13 +723,13 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B5ECC9-E597-4C3E-831E-3FA4323E2603}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD10"/>
     </sheetView>
   </sheetViews>
